--- a/nr-rm-jdv/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/nr-rm-jdv/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot-4</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T08:29:56+00:00</t>
+    <t>2024-11-14T08:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2026,8 +2026,8 @@
     <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:$this.resolve()}
-</t>
+    <t>pattern:system}
+exists:extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type')}</t>
   </si>
   <si>
     <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
@@ -3275,7 +3275,7 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="107.80859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="89.67578125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
